--- a/Data/Aater.xlsx
+++ b/Data/Aater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94C42C-E7A7-41B0-B78D-46B84E559B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9496B76-7668-41C9-949C-A5031E7B05B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C63B1248-5695-4A21-AA56-2C5EDDD851D6}"/>
   </bookViews>
